--- a/media/sheet.xlsx
+++ b/media/sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProjects\ascsurvey\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEA5136-5828-4A70-8DFB-946325F528A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7E373D-9B8A-4048-A1ED-481628223A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30945" yWindow="3720" windowWidth="21600" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16104" yWindow="13704" windowWidth="17280" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -129,6 +129,41 @@
     <t>入力タイプ</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集計タイプ</t>
+    <rPh sb="0" eb="2">
+      <t>シュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考1</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考2</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配点</t>
+    <rPh sb="0" eb="2">
+      <t>ハイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解答</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -167,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -216,27 +251,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -526,29 +549,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F021EB-F943-4B13-82E0-F873CAF98683}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.69921875" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.69921875" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5" customWidth="1"/>
-    <col min="14" max="14" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="5.69921875" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.69921875" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.69921875" customWidth="1"/>
+    <col min="12" max="12" width="8.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="50.69921875" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.69921875" customWidth="1"/>
+    <col min="16" max="17" width="8.796875" customWidth="1"/>
+    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="21" max="21" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,56 +584,81 @@
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
+    <row r="2" spans="1:21">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="7"/>
+      <c r="L2" s="4"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="7"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/media/sheet.xlsx
+++ b/media/sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProjects\ascsurvey\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7E373D-9B8A-4048-A1ED-481628223A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5538DC-0E95-4F5B-8F82-21151A0926CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16104" yWindow="13704" windowWidth="17280" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35865" yWindow="2100" windowWidth="18720" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -164,6 +164,13 @@
     <t>解答</t>
     <rPh sb="0" eb="2">
       <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -549,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F021EB-F943-4B13-82E0-F873CAF98683}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,17 +571,19 @@
     <col min="7" max="7" width="5.69921875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.69921875" customWidth="1"/>
-    <col min="12" max="12" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="50.69921875" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.69921875" customWidth="1"/>
-    <col min="16" max="17" width="8.796875" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="5.69921875" customWidth="1"/>
+    <col min="11" max="11" width="21.3984375" customWidth="1"/>
+    <col min="12" max="13" width="10.69921875" customWidth="1"/>
+    <col min="14" max="14" width="8.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="50.69921875" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.69921875" customWidth="1"/>
+    <col min="18" max="19" width="8.796875" customWidth="1"/>
     <col min="21" max="21" width="19.5" customWidth="1"/>
+    <col min="23" max="23" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,41 +608,45 @@
         <v>9</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:23">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -643,18 +656,20 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="O2" s="5"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="6"/>
+      <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="6"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
